--- a/data/trans_dic/P22$mutaSS-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.003407569128125315</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.00296074603654657</v>
+        <v>0.002960746036546571</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.008347893326631042</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00140702677602892</v>
+        <v>0.001392510885912014</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001942503758983253</v>
+        <v>0.001974473889016182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002706230953699436</v>
+        <v>0.003174641460779412</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005056814617105264</v>
+        <v>0.005541205132390445</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001975978104452505</v>
+        <v>0.002595858732317411</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0008671027078514952</v>
+        <v>0.0008939245653569968</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0009237301566686404</v>
+        <v>0.0009304081140195263</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004554692939113684</v>
+        <v>0.004659464674269576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002757913158833481</v>
+        <v>0.003122699428347691</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002668131344179899</v>
+        <v>0.002564497357333531</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0006032148030311107</v>
+        <v>0.00100040557114129</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01206891106936792</v>
+        <v>0.01235984033561217</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01163057971834292</v>
+        <v>0.01169653984890119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01288862456362054</v>
+        <v>0.01324652467818879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01147664501987448</v>
+        <v>0.01145650418863433</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01921705614722069</v>
+        <v>0.02097992658954642</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01184816984461316</v>
+        <v>0.01241173223060376</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.007783667271881171</v>
+        <v>0.007855614708660858</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.008168124059586964</v>
+        <v>0.008808281015283153</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01430192117593186</v>
+        <v>0.01426244579819315</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.009266546450522491</v>
+        <v>0.009458675868890541</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.008946921468821645</v>
+        <v>0.008593553404745899</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.006354754278439556</v>
+        <v>0.007252840623102655</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.01051180107011213</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.007865618465487847</v>
+        <v>0.007865618465487846</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00799075609872635</v>
+        <v>0.007798172252663643</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01438975247322117</v>
+        <v>0.01449351488304314</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007458293554077466</v>
+        <v>0.007468836697922391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004098220196527455</v>
+        <v>0.004931449334786646</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02389386975214237</v>
+        <v>0.02301534679874239</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01006602988434011</v>
+        <v>0.009943086179951363</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003078503296254601</v>
+        <v>0.003074774199259315</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002355421151360558</v>
+        <v>0.002514594523810695</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01734867033231204</v>
+        <v>0.01718631186169562</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01380491339292053</v>
+        <v>0.01392754407067767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006801147290283218</v>
+        <v>0.006555416869571367</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.004318185330105874</v>
+        <v>0.004144569443317208</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02264674004278432</v>
+        <v>0.02182907744385433</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03418718129416653</v>
+        <v>0.03349352100306654</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02338349346039503</v>
+        <v>0.02240705307851498</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02457181165415094</v>
+        <v>0.02743143462097455</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04624549392000828</v>
+        <v>0.04554458182188589</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02626746288742103</v>
+        <v>0.02643665838592413</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01491170690587474</v>
+        <v>0.01523424927399574</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.009860005311328553</v>
+        <v>0.01004887529008582</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02965481442747352</v>
+        <v>0.03039816869349045</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02678042279176985</v>
+        <v>0.02675526628236381</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01634040432163561</v>
+        <v>0.01589541333758592</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01348454832424634</v>
+        <v>0.01309061849512308</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03672092829216085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04267967891082305</v>
+        <v>0.04267967891082304</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03771176187440244</v>
@@ -957,7 +957,7 @@
         <v>0.01585338393339784</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.02314320007923965</v>
+        <v>0.02314320007923966</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04683574925825214</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04166270366379569</v>
+        <v>0.04209640108270897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02977189648409339</v>
+        <v>0.02983227693111552</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02470795382569735</v>
+        <v>0.0253852703301243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03032096122099149</v>
+        <v>0.0308673835925572</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02801694242169239</v>
+        <v>0.02739308894681384</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02461170344813019</v>
+        <v>0.02613471512421146</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008247906017958948</v>
+        <v>0.008275001684140837</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01674776828988838</v>
+        <v>0.01655211187812469</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03865672285337474</v>
+        <v>0.03862741673208324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03042428292578554</v>
+        <v>0.03019567393439999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01876472545330245</v>
+        <v>0.01951796472116125</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02601991879048268</v>
+        <v>0.02530760838470801</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07009820441174741</v>
+        <v>0.07085878084900522</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05820777201163864</v>
+        <v>0.05820089152510476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05194782935317447</v>
+        <v>0.05269530227041491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05968816523097047</v>
+        <v>0.05881396681994476</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05224956223758894</v>
+        <v>0.05295284013782274</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05003747271115199</v>
+        <v>0.05383074120755872</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02682672299671945</v>
+        <v>0.02642378184844127</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03167435790807317</v>
+        <v>0.03174812818540236</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05679049953394965</v>
+        <v>0.05605903281797402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0497901806586938</v>
+        <v>0.05007259817200702</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03578849273409331</v>
+        <v>0.03578099710423321</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04241380458020117</v>
+        <v>0.042308616223373</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06071632909449361</v>
+        <v>0.0636524734588968</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02912277073515413</v>
+        <v>0.03009754732581187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03182069297831378</v>
+        <v>0.03348326400483786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02720345132428312</v>
+        <v>0.02758516068575757</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05891930478480457</v>
+        <v>0.05791510761002742</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02275653991775256</v>
+        <v>0.02222765784570904</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02634507824812515</v>
+        <v>0.02847461352340531</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02705976795455919</v>
+        <v>0.02646426032178882</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06909473929658</v>
+        <v>0.06818173047171498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0309490195903899</v>
+        <v>0.03028062019890827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03509903498138399</v>
+        <v>0.03471148171046469</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02961327401124877</v>
+        <v>0.02908362382452112</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1171100358999021</v>
+        <v>0.1182417656264119</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07306391264753544</v>
+        <v>0.0728211797859606</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07269418430687695</v>
+        <v>0.07329652105222223</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05161126727759923</v>
+        <v>0.05066373181547565</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1186888857979464</v>
+        <v>0.1196028720851154</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06518793133663113</v>
+        <v>0.0625669558673552</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06825147382550638</v>
+        <v>0.06942288912737418</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04543461193542814</v>
+        <v>0.04419663284685983</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1079649632239946</v>
+        <v>0.1109772378673448</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06012655876671864</v>
+        <v>0.05952646985878045</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06343118665480167</v>
+        <v>0.06304912125003988</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04365148091659379</v>
+        <v>0.04410048781971468</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03018655303325505</v>
+        <v>0.03032062752662841</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02055007406571016</v>
+        <v>0.02054391430458264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01826370616474168</v>
+        <v>0.01786868904585332</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02099957242987672</v>
+        <v>0.0216172701794747</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02773559741135202</v>
+        <v>0.02802172899477904</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01663503297897836</v>
+        <v>0.0162924023339976</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.00985295312593727</v>
+        <v>0.0095805361364647</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01403712422583296</v>
+        <v>0.01405331453942974</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03096187425353977</v>
+        <v>0.03058883229907156</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01943321132914274</v>
+        <v>0.01977558547120807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01469322365966817</v>
+        <v>0.0147481331237022</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01875036767192539</v>
+        <v>0.01843752469078307</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04416921603830858</v>
+        <v>0.04427226541177307</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0328097024143016</v>
+        <v>0.03190103838434014</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02891166139305886</v>
+        <v>0.02813512721291363</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03339373005375261</v>
+        <v>0.03333202777747053</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03988495284258318</v>
+        <v>0.04018594627299293</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02707581709056837</v>
+        <v>0.02662286380624583</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01757243850550303</v>
+        <v>0.01744089610864041</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02090534078431413</v>
+        <v>0.02093085205470538</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04003909542388748</v>
+        <v>0.03959594996751416</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02728826928688752</v>
+        <v>0.02752458306408091</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0211453710302439</v>
+        <v>0.02100926736522764</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02540859455839756</v>
+        <v>0.02534999910412395</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2028</v>
+        <v>2061</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3050</v>
+        <v>3578</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4664</v>
+        <v>5111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2213</v>
+        <v>2907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1088</v>
+        <v>1122</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6858</v>
+        <v>7016</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5968</v>
+        <v>6757</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6356</v>
+        <v>6109</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>677</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7040</v>
+        <v>7210</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12142</v>
+        <v>12210</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14526</v>
+        <v>14930</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5724</v>
+        <v>5714</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17725</v>
+        <v>19350</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13269</v>
+        <v>13900</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9769</v>
+        <v>9859</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5093</v>
+        <v>5493</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21534</v>
+        <v>21474</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>20052</v>
+        <v>20467</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21312</v>
+        <v>20471</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7132</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
+        <v>8397</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>14147</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>6758</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>4735</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>24312</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>10880</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>3091</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2806</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>36660</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>28835</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>12521</v>
+      </c>
+      <c r="N10" s="6" t="n">
         <v>8604</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>14046</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>6749</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>3935</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>25240</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>11015</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>3095</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>2628</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>37007</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>28581</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>12991</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>8964</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24385</v>
+        <v>23505</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33370</v>
+        <v>32693</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21158</v>
+        <v>20275</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23592</v>
+        <v>26338</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>48852</v>
+        <v>48111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28743</v>
+        <v>28929</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14989</v>
+        <v>15314</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11002</v>
+        <v>11213</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>63257</v>
+        <v>64843</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>55445</v>
+        <v>55393</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31211</v>
+        <v>30361</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27994</v>
+        <v>27176</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46606</v>
+        <v>47091</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26352</v>
+        <v>26405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20353</v>
+        <v>20911</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31730</v>
+        <v>32302</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27823</v>
+        <v>27204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21555</v>
+        <v>22889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6360</v>
+        <v>6381</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17546</v>
+        <v>17341</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>81633</v>
+        <v>81571</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>53574</v>
+        <v>53172</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29926</v>
+        <v>31128</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>54489</v>
+        <v>52997</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78415</v>
+        <v>79266</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51521</v>
+        <v>51514</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42792</v>
+        <v>43408</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62462</v>
+        <v>61548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51889</v>
+        <v>52587</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43823</v>
+        <v>47145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20685</v>
+        <v>20374</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33183</v>
+        <v>33261</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>119926</v>
+        <v>118382</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>87676</v>
+        <v>88173</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>57076</v>
+        <v>57064</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>88820</v>
+        <v>88599</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27061</v>
+        <v>28370</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14649</v>
+        <v>15140</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16124</v>
+        <v>16966</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26549</v>
+        <v>26921</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20101</v>
+        <v>19758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10303</v>
+        <v>10063</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12901</v>
+        <v>13944</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24559</v>
+        <v>24018</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>54367</v>
+        <v>53649</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29580</v>
+        <v>28941</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>34973</v>
+        <v>34586</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>55777</v>
+        <v>54779</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52195</v>
+        <v>52700</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36753</v>
+        <v>36631</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36834</v>
+        <v>37139</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>50369</v>
+        <v>49444</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>40492</v>
+        <v>40803</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29513</v>
+        <v>28326</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33423</v>
+        <v>33996</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>41235</v>
+        <v>40112</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>84953</v>
+        <v>87323</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>57466</v>
+        <v>56893</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>63203</v>
+        <v>62822</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>82218</v>
+        <v>83063</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>97334</v>
+        <v>97766</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>70038</v>
+        <v>70017</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>61409</v>
+        <v>60081</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>73105</v>
+        <v>75256</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>91886</v>
+        <v>92834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>58933</v>
+        <v>57719</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34692</v>
+        <v>33733</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>51862</v>
+        <v>51922</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>202409</v>
+        <v>199970</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>135078</v>
+        <v>137458</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>101139</v>
+        <v>101517</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>134551</v>
+        <v>132306</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>142420</v>
+        <v>142752</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>111821</v>
+        <v>108724</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>97212</v>
+        <v>94601</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>116253</v>
+        <v>116038</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>132136</v>
+        <v>133134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>95922</v>
+        <v>94317</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>61872</v>
+        <v>61409</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>77238</v>
+        <v>77332</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>261750</v>
+        <v>258853</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>189678</v>
+        <v>191320</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>145551</v>
+        <v>144614</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>182330</v>
+        <v>181910</v>
       </c>
     </row>
     <row r="24">
